--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -528,111 +534,483 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H2">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0289594489366172</v>
+        <v>0.005445666666666667</v>
       </c>
       <c r="N2">
-        <v>0.0289594489366172</v>
+        <v>0.016337</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1561347172047327</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1561347172047327</v>
       </c>
       <c r="Q2">
-        <v>0.1479250170884794</v>
+        <v>0.002039313220777778</v>
       </c>
       <c r="R2">
-        <v>0.1479250170884794</v>
+        <v>0.018353818987</v>
       </c>
       <c r="S2">
-        <v>0.9079832928581187</v>
+        <v>0.009531560799020887</v>
       </c>
       <c r="T2">
-        <v>0.9079832928581187</v>
+        <v>0.009531560799020887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.3744836666666667</v>
+      </c>
+      <c r="H3">
+        <v>1.123451</v>
+      </c>
+      <c r="I3">
+        <v>0.06104703021636478</v>
+      </c>
+      <c r="J3">
+        <v>0.06104703021636479</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.02943233333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.088297</v>
+      </c>
+      <c r="O3">
+        <v>0.8438652827952674</v>
+      </c>
+      <c r="P3">
+        <v>0.8438652827952673</v>
+      </c>
+      <c r="Q3">
+        <v>0.01102192810522222</v>
+      </c>
+      <c r="R3">
+        <v>0.09919735294699999</v>
+      </c>
+      <c r="S3">
+        <v>0.0515154694173439</v>
+      </c>
+      <c r="T3">
+        <v>0.0515154694173439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.135293</v>
+      </c>
+      <c r="H4">
+        <v>15.405879</v>
+      </c>
+      <c r="I4">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="J4">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.016337</v>
+      </c>
+      <c r="O4">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="P4">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="Q4">
+        <v>0.02796509391366667</v>
+      </c>
+      <c r="R4">
+        <v>0.251685845223</v>
+      </c>
+      <c r="S4">
+        <v>0.1307062545236589</v>
+      </c>
+      <c r="T4">
+        <v>0.1307062545236589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.135293</v>
+      </c>
+      <c r="H5">
+        <v>15.405879</v>
+      </c>
+      <c r="I5">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="J5">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.02943233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.088297</v>
+      </c>
+      <c r="O5">
+        <v>0.8438652827952674</v>
+      </c>
+      <c r="P5">
+        <v>0.8438652827952673</v>
+      </c>
+      <c r="Q5">
+        <v>0.1511436553403333</v>
+      </c>
+      <c r="R5">
+        <v>1.360292898063</v>
+      </c>
+      <c r="S5">
+        <v>0.7064314228851999</v>
+      </c>
+      <c r="T5">
+        <v>0.7064314228851998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H6">
+        <v>0.195449</v>
+      </c>
+      <c r="I6">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J6">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.016337</v>
+      </c>
+      <c r="O6">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="P6">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="Q6">
+        <v>0.0003547833681111112</v>
+      </c>
+      <c r="R6">
+        <v>0.003193050313</v>
+      </c>
+      <c r="S6">
+        <v>0.001658224547940083</v>
+      </c>
+      <c r="T6">
+        <v>0.001658224547940082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H7">
+        <v>0.195449</v>
+      </c>
+      <c r="I7">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J7">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.02943233333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.088297</v>
+      </c>
+      <c r="O7">
+        <v>0.8438652827952674</v>
+      </c>
+      <c r="P7">
+        <v>0.8438652827952673</v>
+      </c>
+      <c r="Q7">
+        <v>0.001917506705888889</v>
+      </c>
+      <c r="R7">
+        <v>0.017257560353</v>
+      </c>
+      <c r="S7">
+        <v>0.008962248448886911</v>
+      </c>
+      <c r="T7">
+        <v>0.008962248448886911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="H3">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="I3">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="J3">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.0289594489366172</v>
-      </c>
-      <c r="N3">
-        <v>0.0289594489366172</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.01499099497033952</v>
-      </c>
-      <c r="R3">
-        <v>0.01499099497033952</v>
-      </c>
-      <c r="S3">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="T3">
-        <v>0.09201670714188118</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.678262</v>
+      </c>
+      <c r="I8">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J8">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.016337</v>
+      </c>
+      <c r="O8">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="P8">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="Q8">
+        <v>0.003046418477111111</v>
+      </c>
+      <c r="R8">
+        <v>0.027417766294</v>
+      </c>
+      <c r="S8">
+        <v>0.01423867733411283</v>
+      </c>
+      <c r="T8">
+        <v>0.01423867733411283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.678262</v>
+      </c>
+      <c r="I9">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J9">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.02943233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.088297</v>
+      </c>
+      <c r="O9">
+        <v>0.8438652827952674</v>
+      </c>
+      <c r="P9">
+        <v>0.8438652827952673</v>
+      </c>
+      <c r="Q9">
+        <v>0.01646505553488889</v>
+      </c>
+      <c r="R9">
+        <v>0.148185499814</v>
+      </c>
+      <c r="S9">
+        <v>0.07695614204383672</v>
+      </c>
+      <c r="T9">
+        <v>0.07695614204383673</v>
       </c>
     </row>
   </sheetData>
